--- a/data/Data trimestral agosto 2023 con 3 dummies listo.xlsx
+++ b/data/Data trimestral agosto 2023 con 3 dummies listo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Macriana/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19E54CA-D32E-3749-A667-D2BDE1725B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649BD99D-0FC0-FD48-9A41-E6550E7142A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-6240" windowWidth="38400" windowHeight="21600" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="-38400" yWindow="-5740" windowWidth="38400" windowHeight="21100" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
     <t>D3</t>
   </si>
   <si>
-    <t>D4</t>
+    <t>D1</t>
   </si>
 </sst>
 </file>
@@ -578,13 +578,13 @@
         <v>7</v>
       </c>
       <c r="N1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>18</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16">
